--- a/Newton.xlsx
+++ b/Newton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCBB-23\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13EFBE55-A66A-4096-AA78-EA19748E4DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044AE638-2EE7-470C-8EA1-59062802B0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6FAEB54-0A94-410E-A769-6210A8BE4BDF}"/>
   </bookViews>
@@ -174,14 +174,917 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-NI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8122703412073497E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.87939129483814527"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8669-43CC-8C2E-7E593EB4A9F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1463158767"/>
+        <c:axId val="1463159599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1463158767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-NI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463159599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1463159599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-NI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463158767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-NI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2135969" cy="318036"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -199,7 +1102,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3971925" y="319087"/>
+              <a:off x="4543425" y="3338512"/>
               <a:ext cx="2135969" cy="318036"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -460,7 +1363,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3971925" y="319087"/>
+              <a:off x="4543425" y="3338512"/>
               <a:ext cx="2135969" cy="318036"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -634,6 +1537,5593 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4212948" cy="318036"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C38E2E-E5D1-481F-A5EA-824517F5D666}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="133350" y="976312"/>
+              <a:ext cx="4212948" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=−1+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>7</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>9</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>28</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C38E2E-E5D1-481F-A5EA-824517F5D666}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="133350" y="976312"/>
+              <a:ext cx="4212948" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥)=−1+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>7</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>9</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−28/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−1)(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2958566" cy="318036"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CuadroTexto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B918C01C-AE6D-4A28-A671-3EEA706E935A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="247650" y="1357312"/>
+              <a:ext cx="2958566" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−→ </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=−1+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>7</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>x</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>9</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>28</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−3</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="CuadroTexto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B918C01C-AE6D-4A28-A671-3EEA706E935A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="247650" y="1357312"/>
+              <a:ext cx="2958566" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−→ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=−1+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>7</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>x</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>9</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(𝑥〗^2−𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−28/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥^3−3𝑥^2+2𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3053208" cy="493725"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="CuadroTexto 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0E05BD-D781-4234-9CAA-2B7671C89F65}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="228600" y="1738312"/>
+              <a:ext cx="3053208" cy="493725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−→ </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=−1+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>7</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>x</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>9</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>x</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>9</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>28</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+28</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>56</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="CuadroTexto 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0E05BD-D781-4234-9CAA-2B7671C89F65}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="228600" y="1738312"/>
+              <a:ext cx="3053208" cy="493725"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−→ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=−1+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>7x−9x</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>9𝑥^2−28/3 𝑥^3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+28</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥^2−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>56</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/3 𝑥</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2158348" cy="504882"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="CuadroTexto 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A3F705-C2B2-4596-AF6A-E93959122832}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="28575" y="2119312"/>
+              <a:ext cx="2158348" cy="504882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>1−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>62</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>37</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>28</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="CuadroTexto 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A3F705-C2B2-4596-AF6A-E93959122832}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="28575" y="2119312"/>
+              <a:ext cx="2158348" cy="504882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑓〗_3 (𝑥)=−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1−62</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/3 𝑥+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>37</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥^2−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>28</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑥^3</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4428585" cy="321498"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="CuadroTexto 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA7EDE6-FD8E-453A-8707-639C4C6B8E9B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9982200" y="971550"/>
+              <a:ext cx="4428585" cy="321498"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0.5</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>0.5</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>0.25</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>6</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="CuadroTexto 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA7EDE6-FD8E-453A-8707-639C4C6B8E9B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9982200" y="971550"/>
+              <a:ext cx="4428585" cy="321498"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0.5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0.5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.25</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+5/6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4478534" cy="316882"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="CuadroTexto 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4234EBA-0A7F-4DD4-A0EE-8983E281F4BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="133350" y="3638550"/>
+              <a:ext cx="4478534" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>2</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>1.5</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−0.25</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>12</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="CuadroTexto 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4234EBA-0A7F-4DD4-A0EE-8983E281F4BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="133350" y="3638550"/>
+              <a:ext cx="4478534" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥)=−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1.5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−0.25</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−1/12</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7353808" cy="321498"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="CuadroTexto 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8002D7AC-437A-437B-B325-CA7829569B8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10725150" y="3638550"/>
+              <a:ext cx="7353808" cy="321498"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>800</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-NI" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>755</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−91.25</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>50</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>1.76302083</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-NI" sz="1100" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>7</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="CuadroTexto 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8002D7AC-437A-437B-B325-CA7829569B8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10725150" y="3638550"/>
+              <a:ext cx="7353808" cy="321498"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>800</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>755</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−91.25</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−50/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1.76302083</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-NI" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>7</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="es-NI" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C95E195-F7A4-446E-B985-8C751641A567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -934,15 +7424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FD03D0-B3A3-4C90-9DFD-59E4E2FC17C1}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,8 +7448,23 @@
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -975,8 +7480,23 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="N2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -993,8 +7513,24 @@
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <f>(O3-O2)/(N3-N2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1012,8 +7548,25 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:Q5" si="0">(O4-O3)/(N4-N3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>(P4-P3)/(N4-N2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1032,316 +7585,233 @@
         <f>(D5-D4)/(A5-A2)</f>
         <v>-9.3333333333333339</v>
       </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>4</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>(P5-P4)/(N5-N3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="2">
+        <f>(Q5-Q4)/(N5-N2)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>800</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <f>(B9-B8)/(A9-A8)</f>
-        <v>1.5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <f>(B10-B9)/(A10-A9)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="2">
-        <f>(C10-C9)/(A10-A8)</f>
-        <v>-0.25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-3</v>
-      </c>
-      <c r="C11" s="2">
-        <f>(B11-B10)/(A11-A10)</f>
-        <v>-2.5</v>
-      </c>
-      <c r="D11" s="2">
-        <f>(C11-C10)/(A11-A9)</f>
-        <v>-0.75</v>
-      </c>
-      <c r="E11" s="2">
-        <f>(D11-D10)/(A11-A8)</f>
-        <v>-8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <f>(B15-B14)/(A15-A14)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" ref="C16:D17" si="0">(B16-B15)/(A16-A15)</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <f>(C16-C15)/(A16-A14)</f>
-        <v>0.25</v>
+        <v>-2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="O16" s="2">
+        <v>3</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2310</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>(P16-P15)/(O16-O15)</f>
+        <v>755</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <f>(B17-B16)/(A17-A16)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3090</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" ref="Q17:R19" si="1">(P17-P16)/(O17-O16)</f>
+        <v>390</v>
+      </c>
+      <c r="R17" s="2">
+        <f>(Q17-Q16)/(O17-O15)</f>
+        <v>-91.25</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C18" s="2">
+        <f>(B18-B17)/(A18-A17)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="2">
+        <f>(C18-C17)/(A18-A16)</f>
+        <v>-0.25</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <f>(C17-C16)/(A17-A15)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="2">
-        <f>(D17-D16)/(A17-A14)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="O18" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>800</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2310</v>
-      </c>
-      <c r="C21" s="2">
-        <f>(B21-B20)/(A21-A20)</f>
-        <v>755</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3090</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" ref="C22:D24" si="1">(B22-B21)/(A22-A21)</f>
-        <v>390</v>
-      </c>
-      <c r="D22" s="2">
-        <f>(C22-C21)/(A22-A20)</f>
-        <v>-91.25</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="P18" s="2">
         <v>3940</v>
       </c>
-      <c r="C23" s="2">
+      <c r="Q18" s="2">
         <f t="shared" si="1"/>
         <v>425</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" ref="D23:E24" si="2">(C23-C22)/(A23-A21)</f>
+      <c r="R18" s="2">
+        <f t="shared" ref="R18:S19" si="2">(Q18-Q17)/(O18-O16)</f>
         <v>8.75</v>
       </c>
-      <c r="E23" s="2">
-        <f>(D23-D22)/(A23-A20)</f>
+      <c r="S18" s="2">
+        <f>(R18-R17)/(O18-O15)</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C19" s="2">
+        <f>(B19-B18)/(A19-A18)</f>
+        <v>-2.5</v>
+      </c>
+      <c r="D19" s="2">
+        <f>(C19-C18)/(A19-A17)</f>
+        <v>-0.75</v>
+      </c>
+      <c r="E19" s="2">
+        <f>(D19-D18)/(A19-A16)</f>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="O19" s="2">
         <v>13</v>
       </c>
-      <c r="B24" s="2">
+      <c r="P19" s="2">
         <v>4755</v>
       </c>
-      <c r="C24" s="2">
+      <c r="Q19" s="2">
         <f t="shared" si="1"/>
         <v>135.83333333333334</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="2"/>
+      <c r="R19" s="2">
+        <f>(Q19-Q18)/(O19-O17)</f>
         <v>-36.145833333333329</v>
       </c>
-      <c r="E24" s="2">
-        <f>(D24-D23)/(A24-A21)</f>
+      <c r="S19" s="2">
+        <f>(R19-R18)/(O19-O16)</f>
         <v>-4.489583333333333</v>
       </c>
-      <c r="F24" s="2">
-        <f>(E24-E23)/(A24-A20)</f>
+      <c r="T19" s="2">
+        <f>(S19-S18)/(O19-O15)</f>
         <v>-1.7630208333333333</v>
       </c>
     </row>
